--- a/nevergiveup/Excel/Wave_波次表.xlsx
+++ b/nevergiveup/Excel/Wave_波次表.xlsx
@@ -108,7 +108,7 @@
     <t>armor</t>
   </si>
   <si>
-    <t>magicReduction</t>
+    <t>magic</t>
   </si>
   <si>
     <t>唯一ID</t>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1397,7 +1397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1.1025</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1.1025</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="10">
         <v>15</v>
       </c>

--- a/nevergiveup/Excel/Wave_波次表.xlsx
+++ b/nevergiveup/Excel/Wave_波次表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25640" windowHeight="17600" tabRatio="500"/>
+    <workbookView windowWidth="21720" windowHeight="18675" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -52,7 +52,7 @@
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -66,7 +66,7 @@
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>0=单端
@@ -140,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -181,7 +181,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +189,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -197,14 +197,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +212,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +220,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +228,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +236,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -244,14 +244,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +259,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +267,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -275,14 +275,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -290,49 +290,49 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -716,19 +716,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,55 +912,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1299,23 +1299,23 @@
   <sheetPr/>
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.3727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2545454545455" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.2545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2583333333333" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.2583333333333" style="1" customWidth="1"/>
     <col min="9" max="977" width="9" style="1"/>
-    <col min="978" max="984" width="11.6272727272727" style="1" customWidth="1"/>
+    <col min="978" max="984" width="11.625" style="1" customWidth="1"/>
     <col min="985" max="985" width="9" style="1"/>
-    <col min="986" max="996" width="11.6272727272727" style="1" customWidth="1"/>
+    <col min="986" max="996" width="11.625" style="1" customWidth="1"/>
     <col min="997" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1720,7 +1720,7 @@
         <v>2.25</v>
       </c>
       <c r="D17" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E17" s="5">
         <v>0.72</v>
@@ -1746,7 +1746,7 @@
         <v>2.25</v>
       </c>
       <c r="D18" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E18" s="5">
         <v>0.72</v>
@@ -1772,7 +1772,7 @@
         <v>2.25</v>
       </c>
       <c r="D19" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E19" s="5">
         <v>0.72</v>
@@ -1798,7 +1798,7 @@
         <v>2.25</v>
       </c>
       <c r="D20" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E20" s="5">
         <v>0.72</v>
@@ -1824,7 +1824,7 @@
         <v>2.25</v>
       </c>
       <c r="D21" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E21" s="5">
         <v>0.72</v>
@@ -1850,7 +1850,7 @@
         <v>2.25</v>
       </c>
       <c r="D22" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E22" s="5">
         <v>0.72</v>
@@ -1876,7 +1876,7 @@
         <v>2.25</v>
       </c>
       <c r="D23" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E23" s="5">
         <v>0.72</v>
@@ -1902,7 +1902,7 @@
         <v>2.25</v>
       </c>
       <c r="D24" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E24" s="5">
         <v>0.72</v>
@@ -1928,7 +1928,7 @@
         <v>2.25</v>
       </c>
       <c r="D25" s="5">
-        <v>1.2769</v>
+        <v>1.21</v>
       </c>
       <c r="E25" s="5">
         <v>0.72</v>
@@ -1953,8 +1953,8 @@
       <c r="C26" s="9">
         <v>2.25</v>
       </c>
-      <c r="D26" s="9">
-        <v>1.2769</v>
+      <c r="D26" s="5">
+        <v>1.21</v>
       </c>
       <c r="E26" s="9">
         <v>0.72</v>
@@ -1980,7 +1980,7 @@
         <v>3.375</v>
       </c>
       <c r="D27" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E27" s="5">
         <v>0.61</v>
@@ -2006,7 +2006,7 @@
         <v>3.375</v>
       </c>
       <c r="D28" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E28" s="5">
         <v>0.61</v>
@@ -2032,7 +2032,7 @@
         <v>3.375</v>
       </c>
       <c r="D29" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E29" s="5">
         <v>0.61</v>
@@ -2058,7 +2058,7 @@
         <v>3.375</v>
       </c>
       <c r="D30" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E30" s="5">
         <v>0.61</v>
@@ -2084,7 +2084,7 @@
         <v>3.375</v>
       </c>
       <c r="D31" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E31" s="5">
         <v>0.61</v>
@@ -2110,7 +2110,7 @@
         <v>3.375</v>
       </c>
       <c r="D32" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E32" s="5">
         <v>0.61</v>
@@ -2136,7 +2136,7 @@
         <v>3.375</v>
       </c>
       <c r="D33" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E33" s="5">
         <v>0.61</v>
@@ -2162,7 +2162,7 @@
         <v>3.375</v>
       </c>
       <c r="D34" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E34" s="5">
         <v>0.61</v>
@@ -2188,7 +2188,7 @@
         <v>3.375</v>
       </c>
       <c r="D35" s="5">
-        <v>1.4429</v>
+        <v>1.37</v>
       </c>
       <c r="E35" s="5">
         <v>0.61</v>
@@ -2213,8 +2213,8 @@
       <c r="C36" s="9">
         <v>3.375</v>
       </c>
-      <c r="D36" s="9">
-        <v>1.4429</v>
+      <c r="D36" s="5">
+        <v>1.37</v>
       </c>
       <c r="E36" s="9">
         <v>0.61</v>
@@ -2240,7 +2240,7 @@
         <v>5.0625</v>
       </c>
       <c r="D37" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E37" s="5">
         <v>0.52</v>
@@ -2266,7 +2266,7 @@
         <v>5.0625</v>
       </c>
       <c r="D38" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E38" s="5">
         <v>0.52</v>
@@ -2292,7 +2292,7 @@
         <v>5.0625</v>
       </c>
       <c r="D39" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E39" s="5">
         <v>0.52</v>
@@ -2318,7 +2318,7 @@
         <v>5.0625</v>
       </c>
       <c r="D40" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E40" s="5">
         <v>0.52</v>
@@ -2344,7 +2344,7 @@
         <v>5.0625</v>
       </c>
       <c r="D41" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E41" s="5">
         <v>0.52</v>
@@ -2370,7 +2370,7 @@
         <v>5.0625</v>
       </c>
       <c r="D42" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E42" s="5">
         <v>0.52</v>
@@ -2396,7 +2396,7 @@
         <v>5.0625</v>
       </c>
       <c r="D43" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E43" s="5">
         <v>0.52</v>
@@ -2422,7 +2422,7 @@
         <v>5.0625</v>
       </c>
       <c r="D44" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="5">
         <v>0.52</v>
@@ -2448,7 +2448,7 @@
         <v>5.0625</v>
       </c>
       <c r="D45" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E45" s="5">
         <v>0.52</v>
@@ -2474,7 +2474,7 @@
         <v>5.0625</v>
       </c>
       <c r="D46" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E46" s="5">
         <v>0.52</v>
@@ -2500,7 +2500,7 @@
         <v>5.0625</v>
       </c>
       <c r="D47" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E47" s="5">
         <v>0.52</v>
@@ -2526,7 +2526,7 @@
         <v>5.0625</v>
       </c>
       <c r="D48" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E48" s="5">
         <v>0.52</v>
@@ -2552,7 +2552,7 @@
         <v>5.0625</v>
       </c>
       <c r="D49" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E49" s="5">
         <v>0.52</v>
@@ -2578,7 +2578,7 @@
         <v>5.0625</v>
       </c>
       <c r="D50" s="5">
-        <v>1.6305</v>
+        <v>1.5</v>
       </c>
       <c r="E50" s="5">
         <v>0.52</v>
@@ -2603,8 +2603,8 @@
       <c r="C51" s="9">
         <v>5.0625</v>
       </c>
-      <c r="D51" s="9">
-        <v>1.6305</v>
+      <c r="D51" s="5">
+        <v>1.5</v>
       </c>
       <c r="E51" s="9">
         <v>0.52</v>
@@ -2630,7 +2630,7 @@
         <v>7.5938</v>
       </c>
       <c r="D52" s="5">
-        <v>1.8424</v>
+        <v>1.63</v>
       </c>
       <c r="E52" s="5">
         <v>0.44</v>
@@ -2656,7 +2656,7 @@
         <v>7.5938</v>
       </c>
       <c r="D53" s="5">
-        <v>1.8424</v>
+        <v>1.63</v>
       </c>
       <c r="E53" s="5">
         <v>0.44</v>
@@ -2682,7 +2682,7 @@
         <v>7.5938</v>
       </c>
       <c r="D54" s="5">
-        <v>1.8424</v>
+        <v>1.63</v>
       </c>
       <c r="E54" s="5">
         <v>0.44</v>
@@ -2708,7 +2708,7 @@
         <v>7.5938</v>
       </c>
       <c r="D55" s="5">
-        <v>1.8424</v>
+        <v>1.63</v>
       </c>
       <c r="E55" s="5">
         <v>0.44</v>
@@ -2734,7 +2734,7 @@
         <v>7.5938</v>
       </c>
       <c r="D56" s="5">
-        <v>1.8424</v>
+        <v>1.63</v>
       </c>
       <c r="E56" s="5">
         <v>0.44</v>
@@ -2760,7 +2760,7 @@
         <v>7.5938</v>
       </c>
       <c r="D57" s="5">
-        <v>1.8424</v>
+        <v>1.63</v>
       </c>
       <c r="E57" s="5">
         <v>0.44</v>
@@ -2786,7 +2786,7 @@
         <v>11.3906</v>
       </c>
       <c r="D58" s="5">
-        <v>2.082</v>
+        <v>1.78</v>
       </c>
       <c r="E58" s="5">
         <v>0.38</v>
@@ -2812,7 +2812,7 @@
         <v>11.3906</v>
       </c>
       <c r="D59" s="5">
-        <v>2.082</v>
+        <v>1.78</v>
       </c>
       <c r="E59" s="5">
         <v>0.38</v>
@@ -2838,7 +2838,7 @@
         <v>11.3906</v>
       </c>
       <c r="D60" s="5">
-        <v>2.082</v>
+        <v>1.78</v>
       </c>
       <c r="E60" s="5">
         <v>0.38</v>
@@ -2864,7 +2864,7 @@
         <v>11.3906</v>
       </c>
       <c r="D61" s="5">
-        <v>2.082</v>
+        <v>1.78</v>
       </c>
       <c r="E61" s="5">
         <v>0.38</v>
@@ -2890,7 +2890,7 @@
         <v>11.3906</v>
       </c>
       <c r="D62" s="5">
-        <v>2.082</v>
+        <v>1.78</v>
       </c>
       <c r="E62" s="5">
         <v>0.38</v>
@@ -2916,7 +2916,7 @@
         <v>11.3906</v>
       </c>
       <c r="D63" s="5">
-        <v>2.082</v>
+        <v>1.78</v>
       </c>
       <c r="E63" s="5">
         <v>0.38</v>
@@ -2942,7 +2942,7 @@
         <v>17.0859</v>
       </c>
       <c r="D64" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E64" s="5">
         <v>0.32</v>
@@ -2968,7 +2968,7 @@
         <v>17.0859</v>
       </c>
       <c r="D65" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E65" s="5">
         <v>0.32</v>
@@ -2994,7 +2994,7 @@
         <v>17.0859</v>
       </c>
       <c r="D66" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E66" s="5">
         <v>0.32</v>
@@ -3020,7 +3020,7 @@
         <v>17.0859</v>
       </c>
       <c r="D67" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E67" s="5">
         <v>0.32</v>
@@ -3046,7 +3046,7 @@
         <v>17.0859</v>
       </c>
       <c r="D68" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E68" s="5">
         <v>0.32</v>
@@ -3072,7 +3072,7 @@
         <v>17.0859</v>
       </c>
       <c r="D69" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E69" s="5">
         <v>0.32</v>
@@ -3098,7 +3098,7 @@
         <v>17.0859</v>
       </c>
       <c r="D70" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E70" s="5">
         <v>0.32</v>
@@ -3124,7 +3124,7 @@
         <v>17.0859</v>
       </c>
       <c r="D71" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E71" s="5">
         <v>0.32</v>
@@ -3150,7 +3150,7 @@
         <v>17.0859</v>
       </c>
       <c r="D72" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E72" s="5">
         <v>0.32</v>
@@ -3176,7 +3176,7 @@
         <v>17.0859</v>
       </c>
       <c r="D73" s="5">
-        <v>2.3526</v>
+        <v>2.1</v>
       </c>
       <c r="E73" s="5">
         <v>0.32</v>
@@ -3202,7 +3202,7 @@
         <v>25.6289</v>
       </c>
       <c r="D74" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E74" s="5">
         <v>0.27</v>
@@ -3228,7 +3228,7 @@
         <v>25.6289</v>
       </c>
       <c r="D75" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E75" s="5">
         <v>0.27</v>
@@ -3254,7 +3254,7 @@
         <v>25.6289</v>
       </c>
       <c r="D76" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E76" s="5">
         <v>0.27</v>
@@ -3280,7 +3280,7 @@
         <v>25.6289</v>
       </c>
       <c r="D77" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E77" s="5">
         <v>0.27</v>
@@ -3306,7 +3306,7 @@
         <v>25.6289</v>
       </c>
       <c r="D78" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E78" s="5">
         <v>0.27</v>
@@ -3332,7 +3332,7 @@
         <v>25.6289</v>
       </c>
       <c r="D79" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E79" s="5">
         <v>0.27</v>
@@ -3358,7 +3358,7 @@
         <v>25.6289</v>
       </c>
       <c r="D80" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E80" s="5">
         <v>0.27</v>
@@ -3384,7 +3384,7 @@
         <v>25.6289</v>
       </c>
       <c r="D81" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E81" s="5">
         <v>0.27</v>
@@ -3410,7 +3410,7 @@
         <v>25.6289</v>
       </c>
       <c r="D82" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E82" s="5">
         <v>0.27</v>
@@ -3436,7 +3436,7 @@
         <v>25.6289</v>
       </c>
       <c r="D83" s="5">
-        <v>2.6584</v>
+        <v>2.3</v>
       </c>
       <c r="E83" s="5">
         <v>0.27</v>
@@ -3462,7 +3462,7 @@
         <v>38.4434</v>
       </c>
       <c r="D84" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E84" s="5">
         <v>0.23</v>
@@ -3488,7 +3488,7 @@
         <v>38.4434</v>
       </c>
       <c r="D85" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E85" s="5">
         <v>0.23</v>
@@ -3514,7 +3514,7 @@
         <v>38.4434</v>
       </c>
       <c r="D86" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E86" s="5">
         <v>0.23</v>
@@ -3540,7 +3540,7 @@
         <v>38.4434</v>
       </c>
       <c r="D87" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E87" s="5">
         <v>0.23</v>
@@ -3566,7 +3566,7 @@
         <v>38.4434</v>
       </c>
       <c r="D88" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E88" s="5">
         <v>0.23</v>
@@ -3592,7 +3592,7 @@
         <v>38.4434</v>
       </c>
       <c r="D89" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E89" s="5">
         <v>0.23</v>
@@ -3618,7 +3618,7 @@
         <v>38.4434</v>
       </c>
       <c r="D90" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E90" s="5">
         <v>0.23</v>
@@ -3644,7 +3644,7 @@
         <v>38.4434</v>
       </c>
       <c r="D91" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E91" s="5">
         <v>0.23</v>
@@ -3670,7 +3670,7 @@
         <v>38.4434</v>
       </c>
       <c r="D92" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E92" s="5">
         <v>0.23</v>
@@ -3696,7 +3696,7 @@
         <v>38.4434</v>
       </c>
       <c r="D93" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E93" s="5">
         <v>0.23</v>
@@ -3722,7 +3722,7 @@
         <v>38.4434</v>
       </c>
       <c r="D94" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E94" s="5">
         <v>0.23</v>
@@ -3748,7 +3748,7 @@
         <v>38.4434</v>
       </c>
       <c r="D95" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E95" s="5">
         <v>0.23</v>
@@ -3774,7 +3774,7 @@
         <v>38.4434</v>
       </c>
       <c r="D96" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E96" s="5">
         <v>0.23</v>
@@ -3800,7 +3800,7 @@
         <v>38.4434</v>
       </c>
       <c r="D97" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E97" s="5">
         <v>0.23</v>
@@ -3826,7 +3826,7 @@
         <v>38.4434</v>
       </c>
       <c r="D98" s="5">
-        <v>3.004</v>
+        <v>2.71</v>
       </c>
       <c r="E98" s="5">
         <v>0.23</v>
@@ -3852,7 +3852,7 @@
         <v>57.665</v>
       </c>
       <c r="D99" s="5">
-        <v>3.3946</v>
+        <v>2.98</v>
       </c>
       <c r="E99" s="5">
         <v>0.2</v>
@@ -3878,7 +3878,7 @@
         <v>57.665</v>
       </c>
       <c r="D100" s="5">
-        <v>3.3946</v>
+        <v>2.98</v>
       </c>
       <c r="E100" s="5">
         <v>0.2</v>
@@ -3904,7 +3904,7 @@
         <v>57.665</v>
       </c>
       <c r="D101" s="5">
-        <v>3.3946</v>
+        <v>2.98</v>
       </c>
       <c r="E101" s="5">
         <v>0.2</v>
@@ -3930,7 +3930,7 @@
         <v>57.665</v>
       </c>
       <c r="D102" s="5">
-        <v>3.3946</v>
+        <v>2.98</v>
       </c>
       <c r="E102" s="5">
         <v>0.2</v>
@@ -3956,7 +3956,7 @@
         <v>57.665</v>
       </c>
       <c r="D103" s="5">
-        <v>3.3946</v>
+        <v>2.98</v>
       </c>
       <c r="E103" s="5">
         <v>0.2</v>
@@ -3982,7 +3982,7 @@
         <v>57.665</v>
       </c>
       <c r="D104" s="5">
-        <v>3.3946</v>
+        <v>2.98</v>
       </c>
       <c r="E104" s="5">
         <v>0.2</v>
@@ -4008,7 +4008,7 @@
         <v>86.4976</v>
       </c>
       <c r="D105" s="5">
-        <v>3.8359</v>
+        <v>2.98</v>
       </c>
       <c r="E105" s="5">
         <v>0.17</v>
@@ -4034,7 +4034,7 @@
         <v>86.4976</v>
       </c>
       <c r="D106" s="5">
-        <v>3.8359</v>
+        <v>2.98</v>
       </c>
       <c r="E106" s="5">
         <v>0.17</v>
@@ -4060,7 +4060,7 @@
         <v>86.4976</v>
       </c>
       <c r="D107" s="5">
-        <v>3.8359</v>
+        <v>2.98</v>
       </c>
       <c r="E107" s="5">
         <v>0.17</v>
@@ -4086,7 +4086,7 @@
         <v>86.4976</v>
       </c>
       <c r="D108" s="5">
-        <v>3.8359</v>
+        <v>2.98</v>
       </c>
       <c r="E108" s="5">
         <v>0.17</v>
@@ -4112,7 +4112,7 @@
         <v>86.4976</v>
       </c>
       <c r="D109" s="5">
-        <v>3.8359</v>
+        <v>2.98</v>
       </c>
       <c r="E109" s="5">
         <v>0.17</v>
@@ -4138,7 +4138,7 @@
         <v>86.4976</v>
       </c>
       <c r="D110" s="5">
-        <v>3.8359</v>
+        <v>2.98</v>
       </c>
       <c r="E110" s="5">
         <v>0.17</v>
@@ -4164,7 +4164,7 @@
         <v>129.7463</v>
       </c>
       <c r="D111" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E111" s="5">
         <v>0.14</v>
@@ -4190,7 +4190,7 @@
         <v>129.7463</v>
       </c>
       <c r="D112" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E112" s="5">
         <v>0.14</v>
@@ -4216,7 +4216,7 @@
         <v>129.7463</v>
       </c>
       <c r="D113" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E113" s="5">
         <v>0.14</v>
@@ -4242,7 +4242,7 @@
         <v>129.7463</v>
       </c>
       <c r="D114" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E114" s="5">
         <v>0.14</v>
@@ -4268,7 +4268,7 @@
         <v>129.7463</v>
       </c>
       <c r="D115" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E115" s="5">
         <v>0.14</v>
@@ -4294,7 +4294,7 @@
         <v>129.7463</v>
       </c>
       <c r="D116" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E116" s="5">
         <v>0.14</v>
@@ -4320,7 +4320,7 @@
         <v>129.7463</v>
       </c>
       <c r="D117" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E117" s="5">
         <v>0.14</v>
@@ -4346,7 +4346,7 @@
         <v>129.7463</v>
       </c>
       <c r="D118" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E118" s="5">
         <v>0.14</v>
@@ -4372,7 +4372,7 @@
         <v>129.7463</v>
       </c>
       <c r="D119" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E119" s="5">
         <v>0.14</v>
@@ -4398,7 +4398,7 @@
         <v>129.7463</v>
       </c>
       <c r="D120" s="5">
-        <v>4.3345</v>
+        <v>3.13</v>
       </c>
       <c r="E120" s="5">
         <v>0.14</v>
@@ -4424,7 +4424,7 @@
         <v>194.6195</v>
       </c>
       <c r="D121" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E121" s="5">
         <v>0.12</v>
@@ -4450,7 +4450,7 @@
         <v>194.6195</v>
       </c>
       <c r="D122" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E122" s="5">
         <v>0.12</v>
@@ -4476,7 +4476,7 @@
         <v>194.6195</v>
       </c>
       <c r="D123" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E123" s="5">
         <v>0.12</v>
@@ -4502,7 +4502,7 @@
         <v>194.6195</v>
       </c>
       <c r="D124" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E124" s="5">
         <v>0.12</v>
@@ -4528,7 +4528,7 @@
         <v>194.6195</v>
       </c>
       <c r="D125" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E125" s="5">
         <v>0.12</v>
@@ -4554,7 +4554,7 @@
         <v>194.6195</v>
       </c>
       <c r="D126" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E126" s="5">
         <v>0.12</v>
@@ -4580,7 +4580,7 @@
         <v>194.6195</v>
       </c>
       <c r="D127" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E127" s="5">
         <v>0.12</v>
@@ -4606,7 +4606,7 @@
         <v>194.6195</v>
       </c>
       <c r="D128" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E128" s="5">
         <v>0.12</v>
@@ -4632,7 +4632,7 @@
         <v>194.6195</v>
       </c>
       <c r="D129" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E129" s="5">
         <v>0.12</v>
@@ -4658,7 +4658,7 @@
         <v>194.6195</v>
       </c>
       <c r="D130" s="5">
-        <v>4.898</v>
+        <v>3.35</v>
       </c>
       <c r="E130" s="5">
         <v>0.12</v>
@@ -4684,7 +4684,7 @@
         <v>291.9293</v>
       </c>
       <c r="D131" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E131" s="5">
         <v>0.1</v>
@@ -4710,7 +4710,7 @@
         <v>291.9293</v>
       </c>
       <c r="D132" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E132" s="5">
         <v>0.1</v>
@@ -4736,7 +4736,7 @@
         <v>291.9293</v>
       </c>
       <c r="D133" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E133" s="5">
         <v>0.1</v>
@@ -4762,7 +4762,7 @@
         <v>291.9293</v>
       </c>
       <c r="D134" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E134" s="5">
         <v>0.1</v>
@@ -4788,7 +4788,7 @@
         <v>291.9293</v>
       </c>
       <c r="D135" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E135" s="5">
         <v>0.1</v>
@@ -4814,7 +4814,7 @@
         <v>291.9293</v>
       </c>
       <c r="D136" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E136" s="5">
         <v>0.1</v>
@@ -4840,7 +4840,7 @@
         <v>291.9293</v>
       </c>
       <c r="D137" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E137" s="5">
         <v>0.1</v>
@@ -4866,7 +4866,7 @@
         <v>291.9293</v>
       </c>
       <c r="D138" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E138" s="5">
         <v>0.1</v>
@@ -4892,7 +4892,7 @@
         <v>291.9293</v>
       </c>
       <c r="D139" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E139" s="5">
         <v>0.1</v>
@@ -4918,7 +4918,7 @@
         <v>291.9293</v>
       </c>
       <c r="D140" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E140" s="5">
         <v>0.1</v>
@@ -4944,7 +4944,7 @@
         <v>291.9293</v>
       </c>
       <c r="D141" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E141" s="5">
         <v>0.1</v>
@@ -4970,7 +4970,7 @@
         <v>291.9293</v>
       </c>
       <c r="D142" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E142" s="5">
         <v>0.1</v>
@@ -4996,7 +4996,7 @@
         <v>291.9293</v>
       </c>
       <c r="D143" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E143" s="5">
         <v>0.1</v>
@@ -5022,7 +5022,7 @@
         <v>291.9293</v>
       </c>
       <c r="D144" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E144" s="5">
         <v>0.1</v>
@@ -5048,7 +5048,7 @@
         <v>291.9293</v>
       </c>
       <c r="D145" s="5">
-        <v>5.5348</v>
+        <v>3.711</v>
       </c>
       <c r="E145" s="5">
         <v>0.1</v>
@@ -5074,7 +5074,7 @@
         <v>437.8939</v>
       </c>
       <c r="D146" s="5">
-        <v>6.2543</v>
+        <v>4.21</v>
       </c>
       <c r="E146" s="5">
         <v>0.09</v>
@@ -5100,7 +5100,7 @@
         <v>437.8939</v>
       </c>
       <c r="D147" s="5">
-        <v>6.2543</v>
+        <v>4.21</v>
       </c>
       <c r="E147" s="5">
         <v>0.09</v>
@@ -5126,7 +5126,7 @@
         <v>437.8939</v>
       </c>
       <c r="D148" s="5">
-        <v>6.2543</v>
+        <v>4.21</v>
       </c>
       <c r="E148" s="5">
         <v>0.09</v>
@@ -5152,7 +5152,7 @@
         <v>437.8939</v>
       </c>
       <c r="D149" s="5">
-        <v>6.2543</v>
+        <v>4.21</v>
       </c>
       <c r="E149" s="5">
         <v>0.09</v>
@@ -5178,7 +5178,7 @@
         <v>437.8939</v>
       </c>
       <c r="D150" s="5">
-        <v>6.2543</v>
+        <v>4.21</v>
       </c>
       <c r="E150" s="5">
         <v>0.09</v>
@@ -5204,7 +5204,7 @@
         <v>437.8939</v>
       </c>
       <c r="D151" s="5">
-        <v>6.2543</v>
+        <v>4.21</v>
       </c>
       <c r="E151" s="5">
         <v>0.09</v>
@@ -5230,7 +5230,7 @@
         <v>656.8408</v>
       </c>
       <c r="D152" s="5">
-        <v>7.0673</v>
+        <v>5.13</v>
       </c>
       <c r="E152" s="5">
         <v>0.07</v>
@@ -5256,7 +5256,7 @@
         <v>656.8408</v>
       </c>
       <c r="D153" s="5">
-        <v>7.0673</v>
+        <v>5.13</v>
       </c>
       <c r="E153" s="5">
         <v>0.07</v>
@@ -5282,7 +5282,7 @@
         <v>656.8408</v>
       </c>
       <c r="D154" s="5">
-        <v>7.0673</v>
+        <v>5.13</v>
       </c>
       <c r="E154" s="5">
         <v>0.07</v>
@@ -5308,7 +5308,7 @@
         <v>656.8408</v>
       </c>
       <c r="D155" s="5">
-        <v>7.0673</v>
+        <v>5.13</v>
       </c>
       <c r="E155" s="5">
         <v>0.07</v>
@@ -5334,7 +5334,7 @@
         <v>656.8408</v>
       </c>
       <c r="D156" s="5">
-        <v>7.0673</v>
+        <v>5.13</v>
       </c>
       <c r="E156" s="5">
         <v>0.07</v>
@@ -5360,7 +5360,7 @@
         <v>656.8408</v>
       </c>
       <c r="D157" s="5">
-        <v>7.0673</v>
+        <v>5.13</v>
       </c>
       <c r="E157" s="5">
         <v>0.07</v>
@@ -5386,7 +5386,7 @@
         <v>985.2613</v>
       </c>
       <c r="D158" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E158" s="5">
         <v>0.06</v>
@@ -5412,7 +5412,7 @@
         <v>985.2613</v>
       </c>
       <c r="D159" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E159" s="5">
         <v>0.06</v>
@@ -5438,7 +5438,7 @@
         <v>985.2613</v>
       </c>
       <c r="D160" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E160" s="5">
         <v>0.06</v>
@@ -5464,7 +5464,7 @@
         <v>985.2613</v>
       </c>
       <c r="D161" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E161" s="5">
         <v>0.06</v>
@@ -5490,7 +5490,7 @@
         <v>985.2613</v>
       </c>
       <c r="D162" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E162" s="5">
         <v>0.06</v>
@@ -5516,7 +5516,7 @@
         <v>985.2613</v>
       </c>
       <c r="D163" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E163" s="5">
         <v>0.06</v>
@@ -5542,7 +5542,7 @@
         <v>985.2613</v>
       </c>
       <c r="D164" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E164" s="5">
         <v>0.06</v>
@@ -5568,7 +5568,7 @@
         <v>985.2613</v>
       </c>
       <c r="D165" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E165" s="5">
         <v>0.06</v>
@@ -5594,7 +5594,7 @@
         <v>985.2613</v>
       </c>
       <c r="D166" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E166" s="5">
         <v>0.06</v>
@@ -5620,7 +5620,7 @@
         <v>985.2613</v>
       </c>
       <c r="D167" s="5">
-        <v>7.9861</v>
+        <v>5.13</v>
       </c>
       <c r="E167" s="5">
         <v>0.06</v>
@@ -5646,7 +5646,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D168" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E168" s="5">
         <v>0.05</v>
@@ -5672,7 +5672,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D169" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E169" s="5">
         <v>0.05</v>
@@ -5698,7 +5698,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D170" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E170" s="5">
         <v>0.05</v>
@@ -5724,7 +5724,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D171" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E171" s="5">
         <v>0.05</v>
@@ -5750,7 +5750,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D172" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E172" s="5">
         <v>0.05</v>
@@ -5776,7 +5776,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D173" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E173" s="5">
         <v>0.05</v>
@@ -5802,7 +5802,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D174" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E174" s="5">
         <v>0.05</v>
@@ -5828,7 +5828,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D175" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E175" s="5">
         <v>0.05</v>
@@ -5854,7 +5854,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D176" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E176" s="5">
         <v>0.05</v>
@@ -5880,7 +5880,7 @@
         <v>1477.8919</v>
       </c>
       <c r="D177" s="5">
-        <v>9.0243</v>
+        <v>6.77</v>
       </c>
       <c r="E177" s="5">
         <v>0.05</v>
@@ -5906,7 +5906,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D178" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E178" s="5">
         <v>0.05</v>
@@ -5932,7 +5932,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D179" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E179" s="5">
         <v>0.05</v>
@@ -5958,7 +5958,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D180" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E180" s="5">
         <v>0.05</v>
@@ -5984,7 +5984,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D181" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E181" s="5">
         <v>0.05</v>
@@ -6010,7 +6010,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D182" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E182" s="5">
         <v>0.05</v>
@@ -6036,7 +6036,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D183" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E183" s="5">
         <v>0.05</v>
@@ -6062,7 +6062,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D184" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E184" s="5">
         <v>0.05</v>
@@ -6088,7 +6088,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D185" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E185" s="5">
         <v>0.05</v>
@@ -6114,7 +6114,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D186" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E186" s="5">
         <v>0.05</v>
@@ -6140,7 +6140,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D187" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E187" s="5">
         <v>0.05</v>
@@ -6166,7 +6166,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D188" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E188" s="5">
         <v>0.05</v>
@@ -6192,7 +6192,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D189" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E189" s="5">
         <v>0.05</v>
@@ -6218,7 +6218,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D190" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E190" s="5">
         <v>0.05</v>
@@ -6244,7 +6244,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D191" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E191" s="5">
         <v>0.05</v>
@@ -6270,7 +6270,7 @@
         <v>2216.8378</v>
       </c>
       <c r="D192" s="5">
-        <v>10.1974</v>
+        <v>8.36</v>
       </c>
       <c r="E192" s="5">
         <v>0.05</v>
